--- a/Luban/Datas/item.xlsx
+++ b/Luban/Datas/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E30D5-48C3-4E1C-9098-7418901D86DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11608303-D9BD-4B05-838C-632145DC832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="4110" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -195,169 +195,174 @@
     <t>test11</t>
   </si>
   <si>
+    <t>Blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c,s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemQuality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_item2</t>
+  </si>
+  <si>
+    <t>test_item3</t>
+  </si>
+  <si>
+    <t>test_item4</t>
+  </si>
+  <si>
+    <t>test_item5</t>
+  </si>
+  <si>
+    <t>test_item6</t>
+  </si>
+  <si>
+    <t>test_item7</t>
+  </si>
+  <si>
+    <t>test_item8</t>
+  </si>
+  <si>
+    <t>test_item9</t>
+  </si>
+  <si>
+    <t>test_item10</t>
+  </si>
+  <si>
+    <t>test_item11</t>
+  </si>
+  <si>
+    <t>test_item12</t>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1 desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2 desc</t>
+  </si>
+  <si>
+    <t>test3 desc</t>
+  </si>
+  <si>
+    <t>test4 desc</t>
+  </si>
+  <si>
+    <t>test5 desc</t>
+  </si>
+  <si>
+    <t>test6 desc</t>
+  </si>
+  <si>
+    <t>test7 desc</t>
+  </si>
+  <si>
+    <t>test8 desc</t>
+  </si>
+  <si>
+    <t>test9 desc</t>
+  </si>
+  <si>
+    <t>test10 desc</t>
+  </si>
+  <si>
+    <t>test11 desc</t>
+  </si>
+  <si>
+    <t>test12 desc</t>
+  </si>
+  <si>
+    <t>添加的技能 (可以添加多个)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_skills</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),(int)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>test12</t>
-  </si>
-  <si>
-    <t>Blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purple</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_skill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加的技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_gold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_gem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c,s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemQuality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_item2</t>
-  </si>
-  <si>
-    <t>test_item3</t>
-  </si>
-  <si>
-    <t>test_item4</t>
-  </si>
-  <si>
-    <t>test_item5</t>
-  </si>
-  <si>
-    <t>test_item6</t>
-  </si>
-  <si>
-    <t>test_item7</t>
-  </si>
-  <si>
-    <t>test_item8</t>
-  </si>
-  <si>
-    <t>test_item9</t>
-  </si>
-  <si>
-    <t>test_item10</t>
-  </si>
-  <si>
-    <t>test_item11</t>
-  </si>
-  <si>
-    <t>test_item12</t>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1 desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2 desc</t>
-  </si>
-  <si>
-    <t>test3 desc</t>
-  </si>
-  <si>
-    <t>test4 desc</t>
-  </si>
-  <si>
-    <t>test5 desc</t>
-  </si>
-  <si>
-    <t>test6 desc</t>
-  </si>
-  <si>
-    <t>test7 desc</t>
-  </si>
-  <si>
-    <t>test8 desc</t>
-  </si>
-  <si>
-    <t>test9 desc</t>
-  </si>
-  <si>
-    <t>test10 desc</t>
-  </si>
-  <si>
-    <t>test11 desc</t>
-  </si>
-  <si>
-    <t>test12 desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,7 +749,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,7 +759,8 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -774,19 +780,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
@@ -848,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -857,22 +863,22 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -905,19 +911,19 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4"/>
@@ -958,19 +964,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -998,19 +1004,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1027,19 +1033,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1059,13 +1065,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>19</v>
@@ -1077,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>10001</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1088,16 +1094,16 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -1106,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="5">
-        <v>10001</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1117,16 +1123,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1135,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="5">
-        <v>20001</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1146,16 +1152,16 @@
         <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -1164,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="5">
-        <v>20001</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1175,16 +1181,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -1193,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="5">
-        <v>30001</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1204,16 +1210,16 @@
         <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="5">
-        <v>30001</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1233,16 +1239,16 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -1251,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="5">
-        <v>10002</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1262,16 +1268,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="5">
-        <v>10002</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1291,16 +1297,16 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -1309,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="5">
-        <v>20002</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
@@ -1320,16 +1326,16 @@
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -1338,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <v>20002</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -1349,16 +1355,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="5">
-        <v>30002</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -1375,19 +1381,19 @@
         <v>10012</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -1396,12 +1402,12 @@
         <v>12</v>
       </c>
       <c r="J19" s="5">
-        <v>30002</v>
+        <v>40003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>